--- a/data/air_info/成都-武汉.xlsx
+++ b/data/air_info/成都-武汉.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1D7B9-9062-4095-AF7F-D42CBE971C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE19D83-8D16-4EC4-B2EB-61D39AF4A3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,30 +33,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：1 小时 45 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A320CA 8296</t>
   </si>
   <si>
     <t>国航经济舱Airbus A321CA 4397</t>
   </si>
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A321CA 8262</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>成都航空经济舱Airbus A320EU 2711</t>
   </si>
   <si>
@@ -75,18 +60,12 @@
     <t>国航经济舱Airbus A321neoCA 4043</t>
   </si>
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A321CA 8266</t>
   </si>
   <si>
     <t>国航经济舱Airbus A320CA 8294</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A320CA 8270</t>
   </si>
   <si>
@@ -120,8 +99,28 @@
     <t>航空信息</t>
   </si>
   <si>
+    <t>1 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
+  </si>
+  <si>
+    <t>2 小时</t>
+  </si>
+  <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,7 +476,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -487,28 +486,27 @@
     <col min="3" max="3" width="23.36328125" style="1" customWidth="1"/>
     <col min="4" max="5" width="35.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -519,23 +517,22 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>0.40972222222222221</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(1200,2100)</f>
-        <v>1865</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,23 +540,22 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>0.4236111111111111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G14" ca="1" si="0">RANDBETWEEN(1200,2100)</f>
-        <v>1466</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,23 +563,22 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>0.53472222222222221</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1626</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -591,23 +586,22 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1489</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,23 +609,22 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>0.63888888888888884</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1679</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,23 +632,22 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>0.68402777777777779</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1496</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,23 +655,22 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>0.72916666666666663</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1499</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,23 +678,22 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>0.75347222222222221</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1284</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,23 +701,22 @@
         <v>0.78819444444444442</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>0.86458333333333337</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1909</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,23 +724,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>0.88541666666666663</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1764</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,23 +747,22 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>0.9375</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1895</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -783,23 +770,22 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>0.97569444444444442</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2093</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -807,23 +793,22 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>0.99305555555555558</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2036</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
